--- a/Assets/DataTable/Dialogue_Table.xlsx
+++ b/Assets/DataTable/Dialogue_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coly_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Project\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18369926-77BD-463F-A18D-E000355C517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DA914E-7EDE-44DB-A8F2-1DA358AAB5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
+    <workbookView xWindow="-8268" yWindow="3912" windowWidth="17280" windowHeight="8964" xr2:uid="{6588767E-8026-49CA-B161-72310838FE2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DialogueName</t>
     <phoneticPr fontId="2"/>
@@ -57,6 +63,105 @@
   </si>
   <si>
     <t>CharacterID3</t>
+  </si>
+  <si>
+    <t>DialogueID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こんにちは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>せいやっ！！！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行くよっ！</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うん！！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HomeID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本2</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本1</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本4</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本3-1</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本3-2</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キサマッ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本5</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本6</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本7</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はろはろ～</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これでっ！！！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なんのよう？</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -500,52 +605,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD9C0A-8662-46A0-8DC1-7FA5C59E56AC}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.69921875" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" customWidth="1"/>
+    <col min="7" max="10" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>501000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>101000</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>502000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>101000</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>503000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>101000</v>
+      </c>
+      <c r="E4">
+        <v>102000</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>503000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>101000</v>
+      </c>
+      <c r="E5">
+        <v>102000</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>505000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>101000</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>506000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>103000</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>507000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>102000</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>508000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>104000</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>